--- a/nodes_source_analyses/energy/transport/transport_car_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_car_flexibility_p2p_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A132968-F865-E04D-BBAB-7DC9608307D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4782B9-9E14-124E-933D-09B8DF9884D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="2940" windowWidth="42260" windowHeight="25740" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Source</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>V2G empirical roundtrip efficiency.</t>
+  </si>
+  <si>
+    <t>marginal_costs</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>eur/MWh</t>
   </si>
 </sst>
 </file>
@@ -1170,33 +1179,6 @@
     <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1194,33 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2192,10 +2201,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2213,42 +2222,42 @@
     <col min="11" max="16384" width="10.7109375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" customHeight="1">
+    <row r="1" spans="2:10" ht="16" customHeight="1">
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="132" t="s">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
     </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
+    <row r="3" spans="2:10" ht="16" customHeight="1">
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
     </row>
-    <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
+    <row r="4" spans="2:10" ht="32" customHeight="1">
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="D5" s="76"/>
     </row>
-    <row r="6" spans="2:11" ht="16" customHeight="1">
+    <row r="6" spans="2:10" ht="16" customHeight="1">
       <c r="B6" s="77"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
@@ -2259,7 +2268,7 @@
       <c r="I6" s="78"/>
       <c r="J6" s="79"/>
     </row>
-    <row r="7" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="80"/>
       <c r="C7" s="81" t="s">
         <v>14</v>
@@ -2280,7 +2289,7 @@
       </c>
       <c r="J7" s="83"/>
     </row>
-    <row r="8" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="85"/>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
@@ -2291,7 +2300,7 @@
       <c r="I8" s="86"/>
       <c r="J8" s="88"/>
     </row>
-    <row r="9" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="85"/>
       <c r="C9" s="86" t="s">
         <v>34</v>
@@ -2304,9 +2313,9 @@
       <c r="I9" s="86"/>
       <c r="J9" s="88"/>
     </row>
-    <row r="10" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="10" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="85"/>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="132" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -2317,48 +2326,59 @@
         <v>0.87</v>
       </c>
       <c r="F10" s="93"/>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="142" t="s">
+      <c r="I10" s="133" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="88"/>
     </row>
-    <row r="11" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="2:11" s="84" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B11" s="85"/>
+      <c r="C11" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="92">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="136"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="85"/>
+      <c r="C12" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="92">
+        <f>E11/E10</f>
+        <v>4.7126436781609193</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="136"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="88"/>
+    </row>
+    <row r="13" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1">
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
@@ -2369,11 +2389,27 @@
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
-    <row r="15" spans="2:11" ht="16" customHeight="1">
-      <c r="K15" s="76"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" customHeight="1">
-      <c r="K16" s="76"/>
+    <row r="15" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="2:10" s="84" customFormat="1" ht="16" customHeight="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" spans="11:11" ht="16" customHeight="1">
       <c r="K17" s="76"/>
@@ -2386,6 +2422,12 @@
     </row>
     <row r="20" spans="11:11" ht="16" customHeight="1">
       <c r="K20" s="76"/>
+    </row>
+    <row r="21" spans="11:11" ht="16" customHeight="1">
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="11:11" ht="16" customHeight="1">
+      <c r="K22" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2488,12 +2530,12 @@
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="134" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="135" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="113">
@@ -2503,7 +2545,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="146" t="s">
+      <c r="K6" s="137" t="s">
         <v>47</v>
       </c>
       <c r="L6" s="70"/>
@@ -2745,16 +2787,16 @@
       <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="138">
         <v>0.87</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="138" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="123" t="s">
